--- a/Research/FinancePreliminary.xlsx
+++ b/Research/FinancePreliminary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENGN4221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD615E2-D99E-4E9C-9161-F01F76C409C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1671870A-0B1B-4EE0-91C1-CF4D8D0D9511}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{8772D691-A40F-411F-96E2-B10B270C0781}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8772D691-A40F-411F-96E2-B10B270C0781}"/>
   </bookViews>
   <sheets>
     <sheet name="EQ &amp; CAPEX" sheetId="1" r:id="rId1"/>
     <sheet name="Risks and Stakeholders" sheetId="2" r:id="rId2"/>
+    <sheet name="TPM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>Equipment</t>
   </si>
@@ -133,6 +134,201 @@
   </si>
   <si>
     <t>~ 1200 (5)</t>
+  </si>
+  <si>
+    <t>Technical Performance Measure</t>
+  </si>
+  <si>
+    <t>Interest Area</t>
+  </si>
+  <si>
+    <t>Input Material</t>
+  </si>
+  <si>
+    <t>SI Unit</t>
+  </si>
+  <si>
+    <t>Target Value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>Kg/s</t>
+  </si>
+  <si>
+    <t>Breaker Output</t>
+  </si>
+  <si>
+    <t>~mm^3</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Pre-Cooker Temperature</t>
+  </si>
+  <si>
+    <t>Int No.</t>
+  </si>
+  <si>
+    <t>Pre-Cooker Pressure</t>
+  </si>
+  <si>
+    <t>Psi</t>
+  </si>
+  <si>
+    <t>Evaporater Plant Temperature</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>Conveyer Throughput (pre-cooked material)</t>
+  </si>
+  <si>
+    <t>Percolator Temp</t>
+  </si>
+  <si>
+    <t>Continuous Cooker (CC) Temp.</t>
+  </si>
+  <si>
+    <t>Continuous Cooker (CC) Press.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC Held Material </t>
+  </si>
+  <si>
+    <t>CC Throughput (cooked material)</t>
+  </si>
+  <si>
+    <t>CC Containter Temperature</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Percolator Volume</t>
+  </si>
+  <si>
+    <t>m^3</t>
+  </si>
+  <si>
+    <t>Percolater throughput</t>
+  </si>
+  <si>
+    <t>Seperation Material Temp.</t>
+  </si>
+  <si>
+    <t>Decanter Throughput</t>
+  </si>
+  <si>
+    <t>Seperator Throughput</t>
+  </si>
+  <si>
+    <t>Seperation Chamber Temp./Press.</t>
+  </si>
+  <si>
+    <t>C/Psi</t>
+  </si>
+  <si>
+    <t>Fat-Press Throuput</t>
+  </si>
+  <si>
+    <t>20-25mm</t>
+  </si>
+  <si>
+    <t>90-100</t>
+  </si>
+  <si>
+    <t>10-15 Psi (1)</t>
+  </si>
+  <si>
+    <t>Ref:</t>
+  </si>
+  <si>
+    <t>https://instapot.co/instant-pot-vs-power-pressure-cooker/</t>
+  </si>
+  <si>
+    <t>&gt;100</t>
+  </si>
+  <si>
+    <t>~1176</t>
+  </si>
+  <si>
+    <t>~120</t>
+  </si>
+  <si>
+    <t>~145 (2)</t>
+  </si>
+  <si>
+    <t>https://www.haarslev.com/products/continuous-cooker/</t>
+  </si>
+  <si>
+    <t>m^3/min</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/Industrial-115v-ac-waterproof-ventilation-fan_62191294101.html?spm=a2700.7724857.normalList.7.4a3e42a3cso6AD&amp;s=p</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>~9-15 (3) **</t>
+  </si>
+  <si>
+    <t>Ventillation Pre-Cooking/CC Phase</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; 450 (4) **</t>
+  </si>
+  <si>
+    <t>https://www.endressdirect.us/full-product-line-news/news/temperature-classifications-and-temperature-class-ratings-for-areas-and-instrumentation</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; 450 (4)</t>
+  </si>
+  <si>
+    <t>The material set by the client that the unit should be able to process (assuming) per day</t>
+  </si>
+  <si>
+    <t>The amount of material that will be able to be fed into the system per second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reccomended by render tech to be around the units as described, this is the material that will now undergo processing </t>
+  </si>
+  <si>
+    <t>Standard industrial temerpature at which material is heated to partially evaporate the material</t>
+  </si>
+  <si>
+    <t>Standard industrial pressure at which pre-cookers operate</t>
+  </si>
+  <si>
+    <t>Conveys the material from the Precooking Module to the Continuous cooking module</t>
+  </si>
+  <si>
+    <t>Ventillation of the system will need to be examined to be able to keep the surrounding container temperature low. 4 industrial fans should be able to achieve the ventialltion specified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A chamber that rotates through the material, heating and evaporating the remaining water in the material </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An industrial standard using by animal material renderers. </t>
+  </si>
+  <si>
+    <t>Set by international bodies, the temperature specified is the recognzed minimum temperature at which envirmental objects may experience combustion. This is therefore the minimum temperature goal, however taking into account the human aspect (ie how vulnerable are humans) we may set this to a lower value</t>
+  </si>
+  <si>
+    <t>The percolator essentially cycle the material (with the water removed) and the liquid fat present, there the compnent cannot be allowed to cool otherwise the animal fats presetn will solidify.</t>
   </si>
 </sst>
 </file>
@@ -164,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +373,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -378,44 +604,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,9 +705,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -445,6 +713,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -457,7 +756,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2874,7 +3228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97666F6-BE88-4C92-96A6-60B3CFC29579}">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2889,19 +3243,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -2911,302 +3265,302 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="22"/>
+      <c r="I3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F21" s="21">
+      <c r="F21" s="11">
         <v>1</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="25"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="15"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F22" s="21">
+      <c r="F22" s="11">
         <v>2</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="27"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -3224,13 +3578,13 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F23" s="21">
+      <c r="F23" s="11">
         <v>3</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="27"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -3248,13 +3602,13 @@
       <c r="W23" s="3"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F24" s="21">
+      <c r="F24" s="11">
         <v>4</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="27"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -3272,13 +3626,13 @@
       <c r="W24" s="3"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F25" s="21">
+      <c r="F25" s="11">
         <v>5</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="27"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -3296,13 +3650,13 @@
       <c r="W25" s="3"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F26" s="21">
+      <c r="F26" s="11">
         <v>6</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="27"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -3320,13 +3674,13 @@
       <c r="W26" s="3"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F27" s="21">
+      <c r="F27" s="11">
         <v>7</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="27"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -3344,9 +3698,9 @@
       <c r="W27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F28" s="21"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -3364,9 +3718,9 @@
       <c r="W28" s="3"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F29" s="21"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -3384,9 +3738,9 @@
       <c r="W29" s="3"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F30" s="21"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -3404,9 +3758,9 @@
       <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F31" s="21"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -3424,9 +3778,9 @@
       <c r="W31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="F32" s="21"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -3444,9 +3798,9 @@
       <c r="W32" s="3"/>
     </row>
     <row r="33" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="F33" s="21"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -3464,9 +3818,9 @@
       <c r="W33" s="3"/>
     </row>
     <row r="34" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="F34" s="21"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -3484,9 +3838,9 @@
       <c r="W34" s="3"/>
     </row>
     <row r="35" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="F35" s="21"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -3504,9 +3858,9 @@
       <c r="W35" s="3"/>
     </row>
     <row r="36" spans="6:23" x14ac:dyDescent="0.3">
-      <c r="F36" s="21"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -3524,9 +3878,9 @@
       <c r="W36" s="3"/>
     </row>
     <row r="37" spans="6:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="28"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -3541,43 +3895,10 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="26"/>
+      <c r="W37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="D3:E3"/>
@@ -3594,8 +3915,41 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G21" r:id="rId1" xr:uid="{97308D88-DE79-4F94-94B6-D78E45265EB0}"/>
@@ -3609,7 +3963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B3A17B-C45E-44D7-BD4A-8901A3809F9D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3618,4 +3972,530 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D532E8F7-3C37-4E05-8034-DEE3E7F66B4D}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="49"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
+        <v>2</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <v>3</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="39">
+        <v>4</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
+        <v>5</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
+        <v>6</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="39">
+        <v>7</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="43">
+        <v>8</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="43">
+        <v>9</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="43">
+        <v>10</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="43">
+        <v>11</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="45">
+        <v>12</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="45">
+        <v>13</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="45">
+        <v>14</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="45">
+        <v>15</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="45">
+        <v>16</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="45">
+        <v>17</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="45">
+        <v>18</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{FBCC4B7E-65C7-41E1-9F11-51C7704CF38D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>